--- a/biology/Botanique/Glaucocystaceae/Glaucocystaceae.xlsx
+++ b/biology/Botanique/Glaucocystaceae/Glaucocystaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glaucocystaceae sont une famille d'algues de l'ordre des Glaucocystales, de l'embranchement des Glaucophyta. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Glaucocystis, dérivé du latin glaucus, « verdâtre ; vert pâle », et du grec κύστις / kýstis, « vessie ; poche ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (28 janvier 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (28 janvier 2022) :
 Chalarodora Pascher
 Corynoplastis	Yokoyama, J.L.Scott, G.C.Zuccarello, M.Kajikawa, Y.Hara &amp; J.A.West
 Cyanophora Korshikov
@@ -553,7 +569,7 @@
 Peliaina Pascher
 Schrammia P.-A.Dangeard  
 Strobilomonas Schiller
-Selon NCBI  (12 mars 2017)[2] :
+Selon NCBI  (12 mars 2017) :
 genre Glaucocystis
 Glaucocystis bhattacharyae  
 Glaucocystis geitleri
@@ -561,7 +577,7 @@
 Glaucocystis miyajii
 Glaucocystis nostochinearum
 Glaucocystis oocystiformis
-Selon World Register of Marine Species                               (12 mars 2017)[3] :
+Selon World Register of Marine Species                               (12 mars 2017) :
 Cyanophora Korshikov, 1924
 Glaucocystis Itzigsohn, 1866
 Glaucocystopsis Bourrelly, 1960
